--- a/Пользователи.xlsx
+++ b/Пользователи.xlsx
@@ -6,36 +6,51 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Пользователи" r:id="rId3" sheetId="1"/>
+    <sheet name="ПОЛЬЗОВАТЕЛИ" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Имя</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Возраст</t>
-  </si>
-  <si>
-    <t>Вес (кг)</t>
-  </si>
-  <si>
-    <t>Рост (см)</t>
-  </si>
-  <si>
-    <t>Цель</t>
-  </si>
-  <si>
-    <t>Суточная норма калорий</t>
+    <t>ИМЯ</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>ЦЕЛЬ</t>
+  </si>
+  <si>
+    <t>рост (см)</t>
+  </si>
+  <si>
+    <t>вес (кг)</t>
+  </si>
+  <si>
+    <t>уровень активности</t>
+  </si>
+  <si>
+    <t>ПОЛ</t>
+  </si>
+  <si>
+    <t>Иван Иванов</t>
+  </si>
+  <si>
+    <t>ivan@example.com</t>
+  </si>
+  <si>
+    <t>LOSE_WEIGHT</t>
+  </si>
+  <si>
+    <t>MODERATELY_ACTIVE</t>
+  </si>
+  <si>
+    <t>MALE</t>
   </si>
 </sst>
 </file>
@@ -80,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -112,6 +127,292 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>180.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>80.0</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>180.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>80.0</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>180.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>80.0</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>180.0</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>80.0</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>180.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>80.0</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>180.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>80.0</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>180.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>80.0</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>180.0</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>80.0</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>180.0</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>80.0</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>180.0</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>80.0</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>180.0</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>80.0</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="H12" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Пользователи.xlsx
+++ b/Пользователи.xlsx
@@ -129,7 +129,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="0">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>8</v>

--- a/Пользователи.xlsx
+++ b/Пользователи.xlsx
@@ -12,30 +12,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>ИМЯ</t>
-  </si>
-  <si>
-    <t>EMAIL</t>
-  </si>
-  <si>
-    <t>ЦЕЛЬ</t>
-  </si>
-  <si>
-    <t>рост (см)</t>
-  </si>
-  <si>
-    <t>вес (кг)</t>
-  </si>
-  <si>
-    <t>уровень активности</t>
-  </si>
-  <si>
-    <t>ПОЛ</t>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Цель</t>
+  </si>
+  <si>
+    <t>Рост (см)</t>
+  </si>
+  <si>
+    <t>Вес (кг)</t>
+  </si>
+  <si>
+    <t>Уровень активности</t>
+  </si>
+  <si>
+    <t>Пол</t>
+  </si>
+  <si>
+    <t>Калории на порцию</t>
+  </si>
+  <si>
+    <t>Углеводы</t>
+  </si>
+  <si>
+    <t>Жиры</t>
+  </si>
+  <si>
+    <t>Название</t>
+  </si>
+  <si>
+    <t>Белки</t>
+  </si>
+  <si>
+    <t>Возраст</t>
+  </si>
+  <si>
+    <t>Дата</t>
   </si>
   <si>
     <t>Иван Иванов</t>
@@ -51,6 +72,12 @@
   </si>
   <si>
     <t>MALE</t>
+  </si>
+  <si>
+    <t>Куриная грудка</t>
+  </si>
+  <si>
+    <t>2025-03-01</t>
   </si>
 </sst>
 </file>
@@ -95,7 +122,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -126,19 +153,40 @@
       <c r="H1" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="I1" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s" s="0">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E2" t="n" s="0">
         <v>180.0</v>
@@ -147,10 +195,31 @@
         <v>80.0</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>165.0</v>
+      </c>
+      <c r="J2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K2" t="n" s="0">
+        <v>3.6</v>
+      </c>
+      <c r="L2" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="M2" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="N2" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Пользователи.xlsx
+++ b/Пользователи.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -74,10 +74,13 @@
     <t>MALE</t>
   </si>
   <si>
-    <t>Куриная грудка</t>
+    <t>Овсянка</t>
   </si>
   <si>
     <t>2025-03-01</t>
+  </si>
+  <si>
+    <t>Яблоки</t>
   </si>
 </sst>
 </file>
@@ -122,7 +125,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -201,24 +204,71 @@
         <v>19</v>
       </c>
       <c r="I2" t="n" s="0">
-        <v>165.0</v>
+        <v>68.0</v>
       </c>
       <c r="J2" t="n" s="0">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="K2" t="n" s="0">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="L2" t="s" s="0">
         <v>20</v>
       </c>
       <c r="M2" t="n" s="0">
-        <v>31.0</v>
+        <v>2.4</v>
       </c>
       <c r="N2" t="n" s="0">
         <v>30.0</v>
       </c>
       <c r="O2" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>180.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>80.0</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>52.0</v>
+      </c>
+      <c r="J3" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="K3" t="n" s="0">
+        <v>0.2</v>
+      </c>
+      <c r="L3" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="M3" t="n" s="0">
+        <v>0.3</v>
+      </c>
+      <c r="N3" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="O3" t="s" s="0">
         <v>21</v>
       </c>
     </row>

--- a/Пользователи.xlsx
+++ b/Пользователи.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -74,13 +74,10 @@
     <t>MALE</t>
   </si>
   <si>
-    <t>Овсянка</t>
+    <t>Куриная грудка</t>
   </si>
   <si>
     <t>2025-03-01</t>
-  </si>
-  <si>
-    <t>Яблоки</t>
   </si>
 </sst>
 </file>
@@ -125,7 +122,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -204,71 +201,24 @@
         <v>19</v>
       </c>
       <c r="I2" t="n" s="0">
-        <v>68.0</v>
+        <v>165.0</v>
       </c>
       <c r="J2" t="n" s="0">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="K2" t="n" s="0">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="L2" t="s" s="0">
         <v>20</v>
       </c>
       <c r="M2" t="n" s="0">
-        <v>2.4</v>
+        <v>31.0</v>
       </c>
       <c r="N2" t="n" s="0">
         <v>30.0</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="E3" t="n" s="0">
-        <v>180.0</v>
-      </c>
-      <c r="F3" t="n" s="0">
-        <v>80.0</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="I3" t="n" s="0">
-        <v>52.0</v>
-      </c>
-      <c r="J3" t="n" s="0">
-        <v>14.0</v>
-      </c>
-      <c r="K3" t="n" s="0">
-        <v>0.2</v>
-      </c>
-      <c r="L3" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="M3" t="n" s="0">
-        <v>0.3</v>
-      </c>
-      <c r="N3" t="n" s="0">
-        <v>30.0</v>
-      </c>
-      <c r="O3" t="s" s="0">
         <v>21</v>
       </c>
     </row>
